--- a/Revenuetest1.xlsx
+++ b/Revenuetest1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -27,55 +27,55 @@
     <t>Revenue</t>
   </si>
   <si>
-    <t xml:space="preserve">2007-01-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-10	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-10	</t>
+    <t xml:space="preserve">2022-07-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-10	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-10	</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
